--- a/Function Tracker.xlsx
+++ b/Function Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12720"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Function</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Generate the SWD Request</t>
+  </si>
+  <si>
+    <t>uint32_t SWD_Comm(uint8_t command, uint32_t data)</t>
+  </si>
+  <si>
+    <t>Generic function to perform an SWD message</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +629,7 @@
       </c>
       <c r="J2" s="2">
         <f>SUM(H:H)/(4*(COUNTA(A:A)-1))</f>
-        <v>0.62068965517241381</v>
+        <v>0.68333333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1042,8 +1048,8 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18:H32" si="2">SUM(D18:G18)</f>
-        <v>1</v>
+        <f t="shared" ref="H18:H33" si="2">SUM(D18:G18)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1070,7 +1076,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1097,7 +1103,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1151,7 +1157,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,19 +1216,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1232,24 +1238,24 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1259,24 +1265,24 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1286,18 +1292,18 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1318,13 +1324,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1345,13 +1351,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1372,13 +1378,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1399,27 +1405,54 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>

--- a/Function Tracker.xlsx
+++ b/Function Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12720"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>Function</t>
   </si>
@@ -244,14 +244,31 @@
   </si>
   <si>
     <t>Generic function to perform an SWD message</t>
+  </si>
+  <si>
+    <t>SWDInterpreter.c</t>
+  </si>
+  <si>
+    <t>void programHexFile(uint8_t* hexFile)</t>
+  </si>
+  <si>
+    <t>void interpretHexLine(uint8_t* hexLine)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -275,14 +292,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,39 +592,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -629,7 +660,7 @@
       </c>
       <c r="J2" s="2">
         <f>SUM(H:H)/(4*(COUNTA(A:A)-1))</f>
-        <v>0.68333333333333335</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -984,6 +1015,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1005,6 +1042,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
@@ -1123,14 +1166,14 @@
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">

--- a/Function Tracker.xlsx
+++ b/Function Tracker.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ESD2_NetworkedProgrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D60338E3-754C-4CA9-99F8-915BF44B308C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12720"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,23 +563,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -629,10 +630,10 @@
       </c>
       <c r="J2" s="2">
         <f>SUM(H:H)/(4*(COUNTA(A:A)-1))</f>
-        <v>0.68333333333333335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.69166666666666665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -659,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -686,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -713,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -740,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -767,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -794,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -821,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -848,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -875,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -902,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -929,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -956,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -983,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1123,17 +1124,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
